--- a/doc/Tableau de synthèse - Epreuve E5 - BTS SIO.xlsx
+++ b/doc/Tableau de synthèse - Epreuve E5 - BTS SIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\Portfolio\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D2DE4C-E23B-4CFE-8177-B2FA27DB9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A7A8AB-C009-44B2-9909-5B9101BABB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,9 +529,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -555,30 +579,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -890,8 +890,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -906,56 +906,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="33"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="41"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
@@ -967,22 +967,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -1007,8 +1007,8 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
@@ -1063,16 +1063,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1164,9 +1164,9 @@
         <v>38</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="41"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="5"/>
@@ -1574,16 +1574,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="5"/>
       <c r="J19" s="20"/>
       <c r="K19"/>
@@ -1948,16 +1948,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2402,6 +2402,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2409,11 +2414,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/doc/Tableau de synthèse - Epreuve E5 - BTS SIO.xlsx
+++ b/doc/Tableau de synthèse - Epreuve E5 - BTS SIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prog\Portfolio\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prog\Portfolio\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A7A8AB-C009-44B2-9909-5B9101BABB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08BD6FF-0E0A-4626-BC13-8C968C1CC109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
@@ -532,12 +532,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,30 +578,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,72 +890,72 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="69.85546875" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" customWidth="1"/>
-    <col min="11" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="69.88671875" customWidth="1"/>
+    <col min="10" max="10" width="32.88671875" customWidth="1"/>
+    <col min="11" max="43" width="11.44140625" customWidth="1"/>
+    <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="40" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
@@ -966,23 +966,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -1006,9 +1006,9 @@
       <c r="I6" s="22"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
@@ -1062,17 +1062,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1109,7 +1109,7 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="13"/>
@@ -1393,7 +1393,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="13"/>
@@ -1438,7 +1438,7 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="13"/>
@@ -1483,7 +1483,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="13"/>
@@ -1528,7 +1528,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="13"/>
@@ -1573,17 +1573,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="5"/>
       <c r="J19" s="20"/>
       <c r="K19"/>
@@ -1620,7 +1620,7 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1669,7 +1669,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="13"/>
@@ -1812,7 +1812,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="13"/>
@@ -1857,7 +1857,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="13"/>
@@ -1902,7 +1902,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="13"/>
@@ -1947,17 +1947,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -1994,7 +1994,7 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="13"/>
@@ -2039,7 +2039,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="13"/>
@@ -2084,7 +2084,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="13"/>
@@ -2129,7 +2129,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="13"/>
@@ -2174,7 +2174,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="13"/>
@@ -2219,7 +2219,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="13"/>
@@ -2264,7 +2264,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="13"/>
@@ -2309,7 +2309,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2354,59 +2354,54 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2414,6 +2409,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
